--- a/ocms/src/test/resources/DownloadedFiles/User Role Mapping (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/User Role Mapping (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="353">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -220,6 +220,21 @@
     <t xml:space="preserve">IVRChecker1</t>
   </si>
   <si>
+    <t xml:space="preserve">AravindaTesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9880232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRSTESTING</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ashish</t>
   </si>
   <si>
@@ -499,6 +514,21 @@
     <t xml:space="preserve">784512</t>
   </si>
   <si>
+    <t xml:space="preserve">sudarshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
     <t xml:space="preserve">super2</t>
   </si>
   <si>
@@ -565,6 +595,27 @@
     <t xml:space="preserve">474713</t>
   </si>
   <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52041</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestUser5</t>
   </si>
   <si>
@@ -583,27 +634,6 @@
     <t xml:space="preserve">21474712</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52041</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test1</t>
   </si>
   <si>
@@ -619,9 +649,6 @@
     <t xml:space="preserve">ME</t>
   </si>
   <si>
-    <t xml:space="preserve">Testa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testing</t>
   </si>
   <si>
@@ -721,6 +748,18 @@
     <t xml:space="preserve">TestUser1</t>
   </si>
   <si>
+    <t xml:space="preserve">TestUser221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230451263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200451264</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestUser200</t>
   </si>
   <si>
@@ -731,18 +770,6 @@
   </si>
   <si>
     <t xml:space="preserve">210451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200451264</t>
   </si>
   <si>
     <t xml:space="preserve">trail1</t>
@@ -1113,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -1503,123 +1530,123 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -1642,10 +1669,10 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -1653,48 +1680,48 @@
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1708,39 +1735,39 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1749,24 +1776,24 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1775,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
@@ -1783,25 +1810,25 @@
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
@@ -1809,51 +1836,51 @@
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
@@ -1861,13 +1888,13 @@
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1887,28 +1914,28 @@
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
@@ -1919,166 +1946,166 @@
         <v>119</v>
       </c>
       <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>65</v>
-      </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
         <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
         <v>139</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2090,21 +2117,21 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2121,25 +2148,25 @@
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
         <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
         <v>35</v>
@@ -2147,54 +2174,54 @@
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
@@ -2205,10 +2232,10 @@
         <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2217,24 +2244,24 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2251,77 +2278,77 @@
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
         <v>8</v>
@@ -2329,94 +2356,94 @@
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2428,21 +2455,21 @@
         <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2454,21 +2481,21 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2480,21 +2507,21 @@
         <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2506,47 +2533,47 @@
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
@@ -2563,158 +2590,158 @@
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
         <v>211</v>
       </c>
       <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
         <v>213</v>
       </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
       <c r="G61" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
@@ -2722,22 +2749,22 @@
         <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="H62" t="s">
         <v>35</v>
@@ -2745,25 +2772,25 @@
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H63" t="s">
         <v>35</v>
@@ -2771,25 +2798,25 @@
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
         <v>35</v>
@@ -2797,25 +2824,25 @@
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
         <v>35</v>
@@ -2823,25 +2850,25 @@
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
         <v>35</v>
@@ -2849,25 +2876,25 @@
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
         <v>35</v>
@@ -2875,25 +2902,25 @@
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
         <v>35</v>
@@ -2901,120 +2928,120 @@
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="G72" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3026,21 +3053,21 @@
         <v>65</v>
       </c>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
@@ -3052,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
@@ -3060,39 +3087,39 @@
         <v>242</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3101,50 +3128,50 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3156,21 +3183,21 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3182,21 +3209,21 @@
         <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3208,21 +3235,21 @@
         <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3234,47 +3261,47 @@
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -3291,13 +3318,13 @@
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -3317,51 +3344,51 @@
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
@@ -3369,42 +3396,42 @@
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -3416,47 +3443,47 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -3465,293 +3492,293 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D92" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H92" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H93" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
         <v>65</v>
       </c>
       <c r="H94" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D95" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
         <v>303</v>
       </c>
-      <c r="B99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" t="s">
-        <v>304</v>
-      </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E100" t="s">
         <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G100" t="s">
         <v>65</v>
       </c>
       <c r="H100" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
         <v>8</v>
@@ -3759,39 +3786,39 @@
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H102" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -3806,44 +3833,44 @@
         <v>8</v>
       </c>
       <c r="H103" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -3858,73 +3885,73 @@
         <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H106" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
-        <v>323</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B108" t="s">
         <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -3936,47 +3963,47 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H109" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D110" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -3988,21 +4015,21 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D111" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4014,21 +4041,21 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -4040,21 +4067,21 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D113" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -4071,16 +4098,16 @@
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4089,35 +4116,87 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" t="s">
         <v>8</v>
       </c>
     </row>
